--- a/Code/Results/Cases/Case_5_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968982722317651</v>
+        <v>1.030688913991656</v>
       </c>
       <c r="D2">
-        <v>1.015941455180602</v>
+        <v>1.033777895261851</v>
       </c>
       <c r="E2">
-        <v>1.009955452491988</v>
+        <v>1.039068203584429</v>
       </c>
       <c r="F2">
-        <v>1.012193651005185</v>
+        <v>1.046966858797791</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044606471014204</v>
+        <v>1.031885535942883</v>
       </c>
       <c r="J2">
-        <v>1.019172152889071</v>
+        <v>1.035828773694291</v>
       </c>
       <c r="K2">
-        <v>1.027183079320117</v>
+        <v>1.036579266983556</v>
       </c>
       <c r="L2">
-        <v>1.021277812741673</v>
+        <v>1.041854443255225</v>
       </c>
       <c r="M2">
-        <v>1.023485683030342</v>
+        <v>1.049730814449256</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001984788635084</v>
+        <v>1.031741231226775</v>
       </c>
       <c r="D3">
-        <v>1.019755775547704</v>
+        <v>1.034563260479991</v>
       </c>
       <c r="E3">
-        <v>1.01436554591732</v>
+        <v>1.040038460422519</v>
       </c>
       <c r="F3">
-        <v>1.017295568761853</v>
+        <v>1.048106192718482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046045285736281</v>
+        <v>1.032080558505501</v>
       </c>
       <c r="J3">
-        <v>1.022421492161354</v>
+        <v>1.036522126137798</v>
       </c>
       <c r="K3">
-        <v>1.030141966859067</v>
+        <v>1.037173746211644</v>
       </c>
       <c r="L3">
-        <v>1.024817858178942</v>
+        <v>1.042634420362071</v>
       </c>
       <c r="M3">
-        <v>1.027711830869712</v>
+        <v>1.050681047445336</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005200052344647</v>
+        <v>1.032421978830613</v>
       </c>
       <c r="D4">
-        <v>1.022165620098975</v>
+        <v>1.035070716045394</v>
       </c>
       <c r="E4">
-        <v>1.017159716363015</v>
+        <v>1.040666572577727</v>
       </c>
       <c r="F4">
-        <v>1.020529033826447</v>
+        <v>1.04884400588789</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046938328001309</v>
+        <v>1.032204654150423</v>
       </c>
       <c r="J4">
-        <v>1.0244716691619</v>
+        <v>1.036970043100419</v>
       </c>
       <c r="K4">
-        <v>1.032003688188961</v>
+        <v>1.03755703308098</v>
       </c>
       <c r="L4">
-        <v>1.027055357815375</v>
+        <v>1.043138792993386</v>
       </c>
       <c r="M4">
-        <v>1.030385847730063</v>
+        <v>1.051295917536339</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006534260578422</v>
+        <v>1.032708124154603</v>
       </c>
       <c r="D5">
-        <v>1.023165237383784</v>
+        <v>1.035283875325801</v>
       </c>
       <c r="E5">
-        <v>1.01832069899466</v>
+        <v>1.040930700325731</v>
       </c>
       <c r="F5">
-        <v>1.021872798742894</v>
+        <v>1.049154323265423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047304892690108</v>
+        <v>1.032256321492679</v>
       </c>
       <c r="J5">
-        <v>1.025321462408045</v>
+        <v>1.037158172758817</v>
       </c>
       <c r="K5">
-        <v>1.03277409328222</v>
+        <v>1.037717835779568</v>
       </c>
       <c r="L5">
-        <v>1.027983739566825</v>
+        <v>1.043350753296417</v>
       </c>
       <c r="M5">
-        <v>1.031496048335865</v>
+        <v>1.051554410195557</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006757274586779</v>
+        <v>1.032756166817261</v>
       </c>
       <c r="D6">
-        <v>1.023332300141482</v>
+        <v>1.035319655422098</v>
       </c>
       <c r="E6">
-        <v>1.018514845831765</v>
+        <v>1.040975052597772</v>
       </c>
       <c r="F6">
-        <v>1.022097527210509</v>
+        <v>1.049206435169524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047365926482923</v>
+        <v>1.032264967188873</v>
       </c>
       <c r="J6">
-        <v>1.025463448987448</v>
+        <v>1.037189750308486</v>
       </c>
       <c r="K6">
-        <v>1.032902739700511</v>
+        <v>1.037744815829531</v>
       </c>
       <c r="L6">
-        <v>1.028138912731056</v>
+        <v>1.04338633778654</v>
       </c>
       <c r="M6">
-        <v>1.031681652860005</v>
+        <v>1.05159781232165</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005217947898093</v>
+        <v>1.032425802479163</v>
       </c>
       <c r="D7">
-        <v>1.022179029403331</v>
+        <v>1.03507356497882</v>
       </c>
       <c r="E7">
-        <v>1.017175282546893</v>
+        <v>1.040670101593319</v>
       </c>
       <c r="F7">
-        <v>1.020547049676736</v>
+        <v>1.048848151810992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046943260629671</v>
+        <v>1.032205346506906</v>
       </c>
       <c r="J7">
-        <v>1.024483071132751</v>
+        <v>1.036972557584637</v>
       </c>
       <c r="K7">
-        <v>1.032014030054625</v>
+        <v>1.037559183036168</v>
       </c>
       <c r="L7">
-        <v>1.027067810492882</v>
+        <v>1.04314162552391</v>
       </c>
       <c r="M7">
-        <v>1.030400736420166</v>
+        <v>1.051299371523063</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9986334775627295</v>
+        <v>1.031044585274102</v>
       </c>
       <c r="D8">
-        <v>1.017242880579954</v>
+        <v>1.03404346348822</v>
       </c>
       <c r="E8">
-        <v>1.011458514028145</v>
+        <v>1.039396045977315</v>
       </c>
       <c r="F8">
-        <v>1.01393231422637</v>
+        <v>1.047351780276541</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045100722707335</v>
+        <v>1.031951878664176</v>
       </c>
       <c r="J8">
-        <v>1.020281394126961</v>
+        <v>1.036063246080657</v>
       </c>
       <c r="K8">
-        <v>1.028194243706448</v>
+        <v>1.036780459657748</v>
       </c>
       <c r="L8">
-        <v>1.022485477613005</v>
+        <v>1.042118107277318</v>
       </c>
       <c r="M8">
-        <v>1.024926813495429</v>
+        <v>1.050051948869959</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9864137555609622</v>
+        <v>1.028609376345163</v>
       </c>
       <c r="D9">
-        <v>1.008075865534444</v>
+        <v>1.032222745322431</v>
       </c>
       <c r="E9">
-        <v>1.000903231564958</v>
+        <v>1.037153238831544</v>
       </c>
       <c r="F9">
-        <v>1.001725617699468</v>
+        <v>1.044719485927107</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041552588017592</v>
+        <v>1.031489194396967</v>
       </c>
       <c r="J9">
-        <v>1.012455573069903</v>
+        <v>1.03445535414898</v>
       </c>
       <c r="K9">
-        <v>1.021039262338979</v>
+        <v>1.035397694426084</v>
       </c>
       <c r="L9">
-        <v>1.013981671445361</v>
+        <v>1.040312059179624</v>
       </c>
       <c r="M9">
-        <v>1.014790759865299</v>
+        <v>1.047853879540023</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9778002257605393</v>
+        <v>1.026984992996845</v>
       </c>
       <c r="D10">
-        <v>1.001615298840158</v>
+        <v>1.031005240476398</v>
       </c>
       <c r="E10">
-        <v>0.9935030663896</v>
+        <v>1.035659554479716</v>
       </c>
       <c r="F10">
-        <v>0.9931704527850553</v>
+        <v>1.042967647965572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038968590795196</v>
+        <v>1.031169976694748</v>
       </c>
       <c r="J10">
-        <v>1.006923183387206</v>
+        <v>1.033379692733724</v>
       </c>
       <c r="K10">
-        <v>1.015955449685544</v>
+        <v>1.034468780174821</v>
       </c>
       <c r="L10">
-        <v>1.007990624223699</v>
+        <v>1.039106369866965</v>
       </c>
       <c r="M10">
-        <v>1.007664121474473</v>
+        <v>1.046388535283522</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739468042763676</v>
+        <v>1.026281395930686</v>
       </c>
       <c r="D11">
-        <v>0.9987266155749142</v>
+        <v>1.030477178504828</v>
       </c>
       <c r="E11">
-        <v>0.9902028222277497</v>
+        <v>1.03501313509336</v>
       </c>
       <c r="F11">
-        <v>0.989355376604328</v>
+        <v>1.04220979844481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037793904865176</v>
+        <v>1.031029203932895</v>
       </c>
       <c r="J11">
-        <v>1.004445078813235</v>
+        <v>1.032913035308694</v>
       </c>
       <c r="K11">
-        <v>1.013672586081271</v>
+        <v>1.034064877559208</v>
       </c>
       <c r="L11">
-        <v>1.005311894639237</v>
+        <v>1.038583900980822</v>
       </c>
       <c r="M11">
-        <v>1.004480866137007</v>
+        <v>1.045754032877813</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9724956795452783</v>
+        <v>1.026020013776208</v>
       </c>
       <c r="D12">
-        <v>0.9976391464889457</v>
+        <v>1.030280901869584</v>
       </c>
       <c r="E12">
-        <v>0.9889616462544571</v>
+        <v>1.034773079641204</v>
       </c>
       <c r="F12">
-        <v>0.9879205826082147</v>
+        <v>1.041928405461056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037348822163986</v>
+        <v>1.030976531931428</v>
       </c>
       <c r="J12">
-        <v>1.003511473718124</v>
+        <v>1.032739564413446</v>
       </c>
       <c r="K12">
-        <v>1.012811716928042</v>
+        <v>1.033914598514627</v>
       </c>
       <c r="L12">
-        <v>1.004303423894752</v>
+        <v>1.038389773031814</v>
       </c>
       <c r="M12">
-        <v>1.003282922865038</v>
+        <v>1.045518350466792</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9728078668855645</v>
+        <v>1.026076082723042</v>
       </c>
       <c r="D13">
-        <v>0.9978730809237407</v>
+        <v>1.030323009790796</v>
       </c>
       <c r="E13">
-        <v>0.9892285912840085</v>
+        <v>1.034824569929549</v>
       </c>
       <c r="F13">
-        <v>0.9882291703583684</v>
+        <v>1.041988760415856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037444696225106</v>
+        <v>1.030987847569339</v>
       </c>
       <c r="J13">
-        <v>1.003712341505856</v>
+        <v>1.032776780552771</v>
       </c>
       <c r="K13">
-        <v>1.012996971803076</v>
+        <v>1.033946845262465</v>
       </c>
       <c r="L13">
-        <v>1.004520366897651</v>
+        <v>1.038431416839815</v>
       </c>
       <c r="M13">
-        <v>1.003540604465983</v>
+        <v>1.045568905145192</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738272649568227</v>
+        <v>1.026259790715033</v>
       </c>
       <c r="D14">
-        <v>0.9986370252326972</v>
+        <v>1.030460956884819</v>
       </c>
       <c r="E14">
-        <v>0.9901005442328206</v>
+        <v>1.03499329094344</v>
       </c>
       <c r="F14">
-        <v>0.9892371438423352</v>
+        <v>1.042186536250796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037757294971766</v>
+        <v>1.031024857854761</v>
       </c>
       <c r="J14">
-        <v>1.004368178915395</v>
+        <v>1.032898698874761</v>
       </c>
       <c r="K14">
-        <v>1.013601693788581</v>
+        <v>1.034052460578182</v>
       </c>
       <c r="L14">
-        <v>1.005228813598664</v>
+        <v>1.038567855522897</v>
       </c>
       <c r="M14">
-        <v>1.004382166330894</v>
+        <v>1.045734551296487</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744526892241931</v>
+        <v>1.026372974633472</v>
       </c>
       <c r="D15">
-        <v>0.9991057729404443</v>
+        <v>1.030545933309158</v>
       </c>
       <c r="E15">
-        <v>0.990635725005351</v>
+        <v>1.03509725261747</v>
       </c>
       <c r="F15">
-        <v>0.9898558095820585</v>
+        <v>1.042308406517207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037948726089871</v>
+        <v>1.031047610406151</v>
       </c>
       <c r="J15">
-        <v>1.004770499848569</v>
+        <v>1.032973799080085</v>
       </c>
       <c r="K15">
-        <v>1.013972551285857</v>
+        <v>1.0341175003243</v>
       </c>
       <c r="L15">
-        <v>1.005663501924789</v>
+        <v>1.038651911981281</v>
       </c>
       <c r="M15">
-        <v>1.004898592570713</v>
+        <v>1.045836611356729</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9780532575906673</v>
+        <v>1.02703168355727</v>
       </c>
       <c r="D16">
-        <v>1.001805024331794</v>
+        <v>1.031040267827895</v>
       </c>
       <c r="E16">
-        <v>0.9937199959871136</v>
+        <v>1.035702462704827</v>
       </c>
       <c r="F16">
-        <v>0.9934212254505034</v>
+        <v>1.043017958832799</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039045344421019</v>
+        <v>1.031179265631301</v>
       </c>
       <c r="J16">
-        <v>1.007085847361149</v>
+        <v>1.033410644521688</v>
       </c>
       <c r="K16">
-        <v>1.016105182642135</v>
+        <v>1.034495550559537</v>
       </c>
       <c r="L16">
-        <v>1.008166556992964</v>
+        <v>1.039141036029976</v>
       </c>
       <c r="M16">
-        <v>1.007873256012055</v>
+        <v>1.046430645132446</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9802778587414287</v>
+        <v>1.027444812725435</v>
       </c>
       <c r="D17">
-        <v>1.003473241742269</v>
+        <v>1.03135011704933</v>
       </c>
       <c r="E17">
-        <v>0.9956283787890396</v>
+        <v>1.036082190286905</v>
       </c>
       <c r="F17">
-        <v>0.9956273596370581</v>
+        <v>1.04346323157793</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039718034290466</v>
+        <v>1.031261167136932</v>
       </c>
       <c r="J17">
-        <v>1.008515610806309</v>
+        <v>1.033684428137307</v>
       </c>
       <c r="K17">
-        <v>1.017420645284151</v>
+        <v>1.034732242795875</v>
       </c>
       <c r="L17">
-        <v>1.009713495008209</v>
+        <v>1.039447744194719</v>
       </c>
       <c r="M17">
-        <v>1.009712493929848</v>
+        <v>1.046803267066119</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9815635818500617</v>
+        <v>1.02768576198494</v>
       </c>
       <c r="D18">
-        <v>1.004437539674375</v>
+        <v>1.031530762467251</v>
       </c>
       <c r="E18">
-        <v>0.9967323159843819</v>
+        <v>1.036303713288071</v>
       </c>
       <c r="F18">
-        <v>0.9969035636278073</v>
+        <v>1.043723019955627</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040105045699124</v>
+        <v>1.031308692901478</v>
       </c>
       <c r="J18">
-        <v>1.009341655480986</v>
+        <v>1.033844035719236</v>
       </c>
       <c r="K18">
-        <v>1.018180112520404</v>
+        <v>1.034870139586724</v>
       </c>
       <c r="L18">
-        <v>1.010607693308789</v>
+        <v>1.039626603531484</v>
       </c>
       <c r="M18">
-        <v>1.010775960512458</v>
+        <v>1.047020611275255</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9820000053951524</v>
+        <v>1.027767915742266</v>
       </c>
       <c r="D19">
-        <v>1.004764879684502</v>
+        <v>1.031592343558395</v>
       </c>
       <c r="E19">
-        <v>0.9971071975647791</v>
+        <v>1.036379252728076</v>
       </c>
       <c r="F19">
-        <v>0.9973369502740019</v>
+        <v>1.043811612675361</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040236108625683</v>
+        <v>1.031324856224625</v>
       </c>
       <c r="J19">
-        <v>1.009621994393172</v>
+        <v>1.033898443231947</v>
       </c>
       <c r="K19">
-        <v>1.018437764050165</v>
+        <v>1.034917131378947</v>
       </c>
       <c r="L19">
-        <v>1.010911239409858</v>
+        <v>1.039687583439695</v>
       </c>
       <c r="M19">
-        <v>1.011137019101342</v>
+        <v>1.047094720062507</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9800404140976683</v>
+        <v>1.027400490154436</v>
       </c>
       <c r="D20">
-        <v>1.00329516777673</v>
+        <v>1.031316881885772</v>
       </c>
       <c r="E20">
-        <v>0.995424584279645</v>
+        <v>1.036041445560049</v>
       </c>
       <c r="F20">
-        <v>0.9953917659353332</v>
+        <v>1.043415450961699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039646417725451</v>
+        <v>1.031252405323061</v>
       </c>
       <c r="J20">
-        <v>1.008363034163501</v>
+        <v>1.033655062617753</v>
       </c>
       <c r="K20">
-        <v>1.017280322046455</v>
+        <v>1.03470686469121</v>
       </c>
       <c r="L20">
-        <v>1.009548366819166</v>
+        <v>1.039414841277742</v>
       </c>
       <c r="M20">
-        <v>1.009516132476714</v>
+        <v>1.046763288245709</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9735276342108508</v>
+        <v>1.026205694257544</v>
       </c>
       <c r="D21">
-        <v>0.9984124690699516</v>
+        <v>1.030420338513968</v>
       </c>
       <c r="E21">
-        <v>0.9898442063422741</v>
+        <v>1.034943605333275</v>
       </c>
       <c r="F21">
-        <v>0.9889408186683806</v>
+        <v>1.042128293271012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037665487149266</v>
+        <v>1.031013969811108</v>
       </c>
       <c r="J21">
-        <v>1.004175419636887</v>
+        <v>1.032862800654307</v>
       </c>
       <c r="K21">
-        <v>1.013423980258561</v>
+        <v>1.034021366444235</v>
       </c>
       <c r="L21">
-        <v>1.005020572048989</v>
+        <v>1.038527679380796</v>
       </c>
       <c r="M21">
-        <v>1.004134784029048</v>
+        <v>1.045685772633981</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9693176031420512</v>
+        <v>1.025454276586432</v>
       </c>
       <c r="D22">
-        <v>0.9952582917903448</v>
+        <v>1.029855888940358</v>
       </c>
       <c r="E22">
-        <v>0.986246468875975</v>
+        <v>1.034253659098088</v>
       </c>
       <c r="F22">
-        <v>0.9847818132230941</v>
+        <v>1.041319619699191</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036369155120323</v>
+        <v>1.030861841721372</v>
       </c>
       <c r="J22">
-        <v>1.001466148380914</v>
+        <v>1.032363901432299</v>
       </c>
       <c r="K22">
-        <v>1.010924271742496</v>
+        <v>1.033588910762012</v>
       </c>
       <c r="L22">
-        <v>1.002095399877123</v>
+        <v>1.037969539819271</v>
       </c>
       <c r="M22">
-        <v>1.000660896109248</v>
+        <v>1.045008295911444</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9715607693251878</v>
+        <v>1.025852636656291</v>
       </c>
       <c r="D23">
-        <v>0.9969386422412055</v>
+        <v>1.030155185962223</v>
       </c>
       <c r="E23">
-        <v>0.9881624690925128</v>
+        <v>1.034619383305418</v>
       </c>
       <c r="F23">
-        <v>0.9869967334652506</v>
+        <v>1.041748254796789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037061315940469</v>
+        <v>1.030942697488676</v>
       </c>
       <c r="J23">
-        <v>1.002909880035124</v>
+        <v>1.032628450591577</v>
       </c>
       <c r="K23">
-        <v>1.012256766183647</v>
+        <v>1.033818301602469</v>
       </c>
       <c r="L23">
-        <v>1.003653790177304</v>
+        <v>1.038265452937314</v>
       </c>
       <c r="M23">
-        <v>1.002511365139481</v>
+        <v>1.045367439186826</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9801477416398978</v>
+        <v>1.027420517684114</v>
       </c>
       <c r="D24">
-        <v>1.003375658704372</v>
+        <v>1.031331899686264</v>
       </c>
       <c r="E24">
-        <v>0.995516698580207</v>
+        <v>1.03605985624207</v>
       </c>
       <c r="F24">
-        <v>0.9954982532557596</v>
+        <v>1.043437040754171</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039678794696629</v>
+        <v>1.031256365169647</v>
       </c>
       <c r="J24">
-        <v>1.008432001378388</v>
+        <v>1.033668331896888</v>
       </c>
       <c r="K24">
-        <v>1.017343752194515</v>
+        <v>1.034718332464109</v>
       </c>
       <c r="L24">
-        <v>1.009623006128912</v>
+        <v>1.039429708807975</v>
       </c>
       <c r="M24">
-        <v>1.00960488853</v>
+        <v>1.046781352953167</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9896510954417413</v>
+        <v>1.029239095401842</v>
       </c>
       <c r="D25">
-        <v>1.010504666676107</v>
+        <v>1.032694098159833</v>
       </c>
       <c r="E25">
-        <v>1.003692984825909</v>
+        <v>1.037732791200228</v>
       </c>
       <c r="F25">
-        <v>1.004951234772113</v>
+        <v>1.045399463707819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042507145162412</v>
+        <v>1.031610707880881</v>
       </c>
       <c r="J25">
-        <v>1.014531832371785</v>
+        <v>1.034871691558839</v>
       </c>
       <c r="K25">
-        <v>1.02294207084322</v>
+        <v>1.035756420508819</v>
       </c>
       <c r="L25">
-        <v>1.016234241195433</v>
+        <v>1.04077925863368</v>
       </c>
       <c r="M25">
-        <v>1.017473172372863</v>
+        <v>1.048422127087495</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030688913991656</v>
+        <v>0.9968982722317656</v>
       </c>
       <c r="D2">
-        <v>1.033777895261851</v>
+        <v>1.015941455180603</v>
       </c>
       <c r="E2">
-        <v>1.039068203584429</v>
+        <v>1.009955452491989</v>
       </c>
       <c r="F2">
-        <v>1.046966858797791</v>
+        <v>1.012193651005185</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031885535942883</v>
+        <v>1.044606471014204</v>
       </c>
       <c r="J2">
-        <v>1.035828773694291</v>
+        <v>1.019172152889072</v>
       </c>
       <c r="K2">
-        <v>1.036579266983556</v>
+        <v>1.027183079320118</v>
       </c>
       <c r="L2">
-        <v>1.041854443255225</v>
+        <v>1.021277812741673</v>
       </c>
       <c r="M2">
-        <v>1.049730814449256</v>
+        <v>1.023485683030342</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031741231226775</v>
+        <v>1.001984788635084</v>
       </c>
       <c r="D3">
-        <v>1.034563260479991</v>
+        <v>1.019755775547704</v>
       </c>
       <c r="E3">
-        <v>1.040038460422519</v>
+        <v>1.014365545917321</v>
       </c>
       <c r="F3">
-        <v>1.048106192718482</v>
+        <v>1.017295568761853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032080558505501</v>
+        <v>1.046045285736281</v>
       </c>
       <c r="J3">
-        <v>1.036522126137798</v>
+        <v>1.022421492161354</v>
       </c>
       <c r="K3">
-        <v>1.037173746211644</v>
+        <v>1.030141966859067</v>
       </c>
       <c r="L3">
-        <v>1.042634420362071</v>
+        <v>1.024817858178943</v>
       </c>
       <c r="M3">
-        <v>1.050681047445336</v>
+        <v>1.027711830869712</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032421978830613</v>
+        <v>1.005200052344646</v>
       </c>
       <c r="D4">
-        <v>1.035070716045394</v>
+        <v>1.022165620098975</v>
       </c>
       <c r="E4">
-        <v>1.040666572577727</v>
+        <v>1.017159716363014</v>
       </c>
       <c r="F4">
-        <v>1.04884400588789</v>
+        <v>1.020529033826447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032204654150423</v>
+        <v>1.046938328001309</v>
       </c>
       <c r="J4">
-        <v>1.036970043100419</v>
+        <v>1.0244716691619</v>
       </c>
       <c r="K4">
-        <v>1.03755703308098</v>
+        <v>1.03200368818896</v>
       </c>
       <c r="L4">
-        <v>1.043138792993386</v>
+        <v>1.027055357815374</v>
       </c>
       <c r="M4">
-        <v>1.051295917536339</v>
+        <v>1.030385847730063</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032708124154603</v>
+        <v>1.006534260578423</v>
       </c>
       <c r="D5">
-        <v>1.035283875325801</v>
+        <v>1.023165237383785</v>
       </c>
       <c r="E5">
-        <v>1.040930700325731</v>
+        <v>1.018320698994661</v>
       </c>
       <c r="F5">
-        <v>1.049154323265423</v>
+        <v>1.021872798742895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032256321492679</v>
+        <v>1.047304892690109</v>
       </c>
       <c r="J5">
-        <v>1.037158172758817</v>
+        <v>1.025321462408046</v>
       </c>
       <c r="K5">
-        <v>1.037717835779568</v>
+        <v>1.032774093282221</v>
       </c>
       <c r="L5">
-        <v>1.043350753296417</v>
+        <v>1.027983739566825</v>
       </c>
       <c r="M5">
-        <v>1.051554410195557</v>
+        <v>1.031496048335865</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032756166817261</v>
+        <v>1.006757274586778</v>
       </c>
       <c r="D6">
-        <v>1.035319655422098</v>
+        <v>1.023332300141481</v>
       </c>
       <c r="E6">
-        <v>1.040975052597772</v>
+        <v>1.018514845831764</v>
       </c>
       <c r="F6">
-        <v>1.049206435169524</v>
+        <v>1.022097527210509</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032264967188873</v>
+        <v>1.047365926482922</v>
       </c>
       <c r="J6">
-        <v>1.037189750308486</v>
+        <v>1.025463448987447</v>
       </c>
       <c r="K6">
-        <v>1.037744815829531</v>
+        <v>1.03290273970051</v>
       </c>
       <c r="L6">
-        <v>1.04338633778654</v>
+        <v>1.028138912731055</v>
       </c>
       <c r="M6">
-        <v>1.05159781232165</v>
+        <v>1.031681652860004</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032425802479163</v>
+        <v>1.005217947898092</v>
       </c>
       <c r="D7">
-        <v>1.03507356497882</v>
+        <v>1.022179029403331</v>
       </c>
       <c r="E7">
-        <v>1.040670101593319</v>
+        <v>1.017175282546892</v>
       </c>
       <c r="F7">
-        <v>1.048848151810992</v>
+        <v>1.020547049676736</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032205346506906</v>
+        <v>1.046943260629671</v>
       </c>
       <c r="J7">
-        <v>1.036972557584637</v>
+        <v>1.024483071132751</v>
       </c>
       <c r="K7">
-        <v>1.037559183036168</v>
+        <v>1.032014030054625</v>
       </c>
       <c r="L7">
-        <v>1.04314162552391</v>
+        <v>1.027067810492881</v>
       </c>
       <c r="M7">
-        <v>1.051299371523063</v>
+        <v>1.030400736420166</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031044585274102</v>
+        <v>0.9986334775627291</v>
       </c>
       <c r="D8">
-        <v>1.03404346348822</v>
+        <v>1.017242880579954</v>
       </c>
       <c r="E8">
-        <v>1.039396045977315</v>
+        <v>1.011458514028145</v>
       </c>
       <c r="F8">
-        <v>1.047351780276541</v>
+        <v>1.013932314226369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031951878664176</v>
+        <v>1.045100722707335</v>
       </c>
       <c r="J8">
-        <v>1.036063246080657</v>
+        <v>1.020281394126961</v>
       </c>
       <c r="K8">
-        <v>1.036780459657748</v>
+        <v>1.028194243706448</v>
       </c>
       <c r="L8">
-        <v>1.042118107277318</v>
+        <v>1.022485477613005</v>
       </c>
       <c r="M8">
-        <v>1.050051948869959</v>
+        <v>1.024926813495428</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028609376345163</v>
+        <v>0.9864137555609619</v>
       </c>
       <c r="D9">
-        <v>1.032222745322431</v>
+        <v>1.008075865534444</v>
       </c>
       <c r="E9">
-        <v>1.037153238831544</v>
+        <v>1.000903231564958</v>
       </c>
       <c r="F9">
-        <v>1.044719485927107</v>
+        <v>1.001725617699467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031489194396967</v>
+        <v>1.041552588017592</v>
       </c>
       <c r="J9">
-        <v>1.03445535414898</v>
+        <v>1.012455573069903</v>
       </c>
       <c r="K9">
-        <v>1.035397694426084</v>
+        <v>1.021039262338978</v>
       </c>
       <c r="L9">
-        <v>1.040312059179624</v>
+        <v>1.013981671445361</v>
       </c>
       <c r="M9">
-        <v>1.047853879540023</v>
+        <v>1.014790759865298</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026984992996845</v>
+        <v>0.9778002257605385</v>
       </c>
       <c r="D10">
-        <v>1.031005240476398</v>
+        <v>1.001615298840158</v>
       </c>
       <c r="E10">
-        <v>1.035659554479716</v>
+        <v>0.9935030663895994</v>
       </c>
       <c r="F10">
-        <v>1.042967647965572</v>
+        <v>0.9931704527850544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031169976694748</v>
+        <v>1.038968590795196</v>
       </c>
       <c r="J10">
-        <v>1.033379692733724</v>
+        <v>1.006923183387206</v>
       </c>
       <c r="K10">
-        <v>1.034468780174821</v>
+        <v>1.015955449685544</v>
       </c>
       <c r="L10">
-        <v>1.039106369866965</v>
+        <v>1.007990624223698</v>
       </c>
       <c r="M10">
-        <v>1.046388535283522</v>
+        <v>1.007664121474472</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026281395930686</v>
+        <v>0.973946804276368</v>
       </c>
       <c r="D11">
-        <v>1.030477178504828</v>
+        <v>0.9987266155749147</v>
       </c>
       <c r="E11">
-        <v>1.03501313509336</v>
+        <v>0.99020282222775</v>
       </c>
       <c r="F11">
-        <v>1.04220979844481</v>
+        <v>0.9893553766043288</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031029203932895</v>
+        <v>1.037793904865176</v>
       </c>
       <c r="J11">
-        <v>1.032913035308694</v>
+        <v>1.004445078813236</v>
       </c>
       <c r="K11">
-        <v>1.034064877559208</v>
+        <v>1.013672586081272</v>
       </c>
       <c r="L11">
-        <v>1.038583900980822</v>
+        <v>1.005311894639237</v>
       </c>
       <c r="M11">
-        <v>1.045754032877813</v>
+        <v>1.004480866137007</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026020013776208</v>
+        <v>0.9724956795452785</v>
       </c>
       <c r="D12">
-        <v>1.030280901869584</v>
+        <v>0.9976391464889458</v>
       </c>
       <c r="E12">
-        <v>1.034773079641204</v>
+        <v>0.9889616462544576</v>
       </c>
       <c r="F12">
-        <v>1.041928405461056</v>
+        <v>0.987920582608215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030976531931428</v>
+        <v>1.037348822163985</v>
       </c>
       <c r="J12">
-        <v>1.032739564413446</v>
+        <v>1.003511473718124</v>
       </c>
       <c r="K12">
-        <v>1.033914598514627</v>
+        <v>1.012811716928042</v>
       </c>
       <c r="L12">
-        <v>1.038389773031814</v>
+        <v>1.004303423894752</v>
       </c>
       <c r="M12">
-        <v>1.045518350466792</v>
+        <v>1.003282922865039</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026076082723042</v>
+        <v>0.9728078668855652</v>
       </c>
       <c r="D13">
-        <v>1.030323009790796</v>
+        <v>0.9978730809237412</v>
       </c>
       <c r="E13">
-        <v>1.034824569929549</v>
+        <v>0.9892285912840088</v>
       </c>
       <c r="F13">
-        <v>1.041988760415856</v>
+        <v>0.9882291703583687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030987847569339</v>
+        <v>1.037444696225106</v>
       </c>
       <c r="J13">
-        <v>1.032776780552771</v>
+        <v>1.003712341505856</v>
       </c>
       <c r="K13">
-        <v>1.033946845262465</v>
+        <v>1.012996971803076</v>
       </c>
       <c r="L13">
-        <v>1.038431416839815</v>
+        <v>1.004520366897652</v>
       </c>
       <c r="M13">
-        <v>1.045568905145192</v>
+        <v>1.003540604465983</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026259790715033</v>
+        <v>0.9738272649568226</v>
       </c>
       <c r="D14">
-        <v>1.030460956884819</v>
+        <v>0.9986370252326973</v>
       </c>
       <c r="E14">
-        <v>1.03499329094344</v>
+        <v>0.9901005442328202</v>
       </c>
       <c r="F14">
-        <v>1.042186536250796</v>
+        <v>0.9892371438423347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031024857854761</v>
+        <v>1.037757294971767</v>
       </c>
       <c r="J14">
-        <v>1.032898698874761</v>
+        <v>1.004368178915394</v>
       </c>
       <c r="K14">
-        <v>1.034052460578182</v>
+        <v>1.013601693788581</v>
       </c>
       <c r="L14">
-        <v>1.038567855522897</v>
+        <v>1.005228813598663</v>
       </c>
       <c r="M14">
-        <v>1.045734551296487</v>
+        <v>1.004382166330893</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026372974633472</v>
+        <v>0.9744526892241937</v>
       </c>
       <c r="D15">
-        <v>1.030545933309158</v>
+        <v>0.9991057729404449</v>
       </c>
       <c r="E15">
-        <v>1.03509725261747</v>
+        <v>0.9906357250053517</v>
       </c>
       <c r="F15">
-        <v>1.042308406517207</v>
+        <v>0.9898558095820592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031047610406151</v>
+        <v>1.037948726089872</v>
       </c>
       <c r="J15">
-        <v>1.032973799080085</v>
+        <v>1.00477049984857</v>
       </c>
       <c r="K15">
-        <v>1.0341175003243</v>
+        <v>1.013972551285858</v>
       </c>
       <c r="L15">
-        <v>1.038651911981281</v>
+        <v>1.005663501924789</v>
       </c>
       <c r="M15">
-        <v>1.045836611356729</v>
+        <v>1.004898592570713</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02703168355727</v>
+        <v>0.9780532575906657</v>
       </c>
       <c r="D16">
-        <v>1.031040267827895</v>
+        <v>1.001805024331793</v>
       </c>
       <c r="E16">
-        <v>1.035702462704827</v>
+        <v>0.9937199959871117</v>
       </c>
       <c r="F16">
-        <v>1.043017958832799</v>
+        <v>0.9934212254505018</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031179265631301</v>
+        <v>1.039045344421018</v>
       </c>
       <c r="J16">
-        <v>1.033410644521688</v>
+        <v>1.007085847361148</v>
       </c>
       <c r="K16">
-        <v>1.034495550559537</v>
+        <v>1.016105182642134</v>
       </c>
       <c r="L16">
-        <v>1.039141036029976</v>
+        <v>1.008166556992963</v>
       </c>
       <c r="M16">
-        <v>1.046430645132446</v>
+        <v>1.007873256012053</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027444812725435</v>
+        <v>0.9802778587414291</v>
       </c>
       <c r="D17">
-        <v>1.03135011704933</v>
+        <v>1.003473241742269</v>
       </c>
       <c r="E17">
-        <v>1.036082190286905</v>
+        <v>0.9956283787890398</v>
       </c>
       <c r="F17">
-        <v>1.04346323157793</v>
+        <v>0.9956273596370582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031261167136932</v>
+        <v>1.039718034290466</v>
       </c>
       <c r="J17">
-        <v>1.033684428137307</v>
+        <v>1.00851561080631</v>
       </c>
       <c r="K17">
-        <v>1.034732242795875</v>
+        <v>1.017420645284151</v>
       </c>
       <c r="L17">
-        <v>1.039447744194719</v>
+        <v>1.009713495008209</v>
       </c>
       <c r="M17">
-        <v>1.046803267066119</v>
+        <v>1.009712493929849</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02768576198494</v>
+        <v>0.9815635818500621</v>
       </c>
       <c r="D18">
-        <v>1.031530762467251</v>
+        <v>1.004437539674376</v>
       </c>
       <c r="E18">
-        <v>1.036303713288071</v>
+        <v>0.9967323159843822</v>
       </c>
       <c r="F18">
-        <v>1.043723019955627</v>
+        <v>0.9969035636278074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031308692901478</v>
+        <v>1.040105045699125</v>
       </c>
       <c r="J18">
-        <v>1.033844035719236</v>
+        <v>1.009341655480986</v>
       </c>
       <c r="K18">
-        <v>1.034870139586724</v>
+        <v>1.018180112520405</v>
       </c>
       <c r="L18">
-        <v>1.039626603531484</v>
+        <v>1.010607693308789</v>
       </c>
       <c r="M18">
-        <v>1.047020611275255</v>
+        <v>1.010775960512458</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027767915742266</v>
+        <v>0.9820000053951525</v>
       </c>
       <c r="D19">
-        <v>1.031592343558395</v>
+        <v>1.004764879684502</v>
       </c>
       <c r="E19">
-        <v>1.036379252728076</v>
+        <v>0.9971071975647793</v>
       </c>
       <c r="F19">
-        <v>1.043811612675361</v>
+        <v>0.9973369502740023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031324856224625</v>
+        <v>1.040236108625683</v>
       </c>
       <c r="J19">
-        <v>1.033898443231947</v>
+        <v>1.009621994393172</v>
       </c>
       <c r="K19">
-        <v>1.034917131378947</v>
+        <v>1.018437764050165</v>
       </c>
       <c r="L19">
-        <v>1.039687583439695</v>
+        <v>1.010911239409858</v>
       </c>
       <c r="M19">
-        <v>1.047094720062507</v>
+        <v>1.011137019101342</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027400490154436</v>
+        <v>0.9800404140976683</v>
       </c>
       <c r="D20">
-        <v>1.031316881885772</v>
+        <v>1.00329516777673</v>
       </c>
       <c r="E20">
-        <v>1.036041445560049</v>
+        <v>0.9954245842796451</v>
       </c>
       <c r="F20">
-        <v>1.043415450961699</v>
+        <v>0.9953917659353335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031252405323061</v>
+        <v>1.039646417725451</v>
       </c>
       <c r="J20">
-        <v>1.033655062617753</v>
+        <v>1.008363034163501</v>
       </c>
       <c r="K20">
-        <v>1.03470686469121</v>
+        <v>1.017280322046455</v>
       </c>
       <c r="L20">
-        <v>1.039414841277742</v>
+        <v>1.009548366819166</v>
       </c>
       <c r="M20">
-        <v>1.046763288245709</v>
+        <v>1.009516132476714</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026205694257544</v>
+        <v>0.9735276342108508</v>
       </c>
       <c r="D21">
-        <v>1.030420338513968</v>
+        <v>0.9984124690699515</v>
       </c>
       <c r="E21">
-        <v>1.034943605333275</v>
+        <v>0.989844206342274</v>
       </c>
       <c r="F21">
-        <v>1.042128293271012</v>
+        <v>0.9889408186683802</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031013969811108</v>
+        <v>1.037665487149266</v>
       </c>
       <c r="J21">
-        <v>1.032862800654307</v>
+        <v>1.004175419636887</v>
       </c>
       <c r="K21">
-        <v>1.034021366444235</v>
+        <v>1.01342398025856</v>
       </c>
       <c r="L21">
-        <v>1.038527679380796</v>
+        <v>1.00502057204899</v>
       </c>
       <c r="M21">
-        <v>1.045685772633981</v>
+        <v>1.004134784029048</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025454276586432</v>
+        <v>0.9693176031420513</v>
       </c>
       <c r="D22">
-        <v>1.029855888940358</v>
+        <v>0.9952582917903451</v>
       </c>
       <c r="E22">
-        <v>1.034253659098088</v>
+        <v>0.9862464688759748</v>
       </c>
       <c r="F22">
-        <v>1.041319619699191</v>
+        <v>0.984781813223094</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030861841721372</v>
+        <v>1.036369155120323</v>
       </c>
       <c r="J22">
-        <v>1.032363901432299</v>
+        <v>1.001466148380914</v>
       </c>
       <c r="K22">
-        <v>1.033588910762012</v>
+        <v>1.010924271742496</v>
       </c>
       <c r="L22">
-        <v>1.037969539819271</v>
+        <v>1.002095399877123</v>
       </c>
       <c r="M22">
-        <v>1.045008295911444</v>
+        <v>1.000660896109248</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025852636656291</v>
+        <v>0.9715607693251865</v>
       </c>
       <c r="D23">
-        <v>1.030155185962223</v>
+        <v>0.9969386422412047</v>
       </c>
       <c r="E23">
-        <v>1.034619383305418</v>
+        <v>0.988162469092512</v>
       </c>
       <c r="F23">
-        <v>1.041748254796789</v>
+        <v>0.9869967334652493</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030942697488676</v>
+        <v>1.037061315940469</v>
       </c>
       <c r="J23">
-        <v>1.032628450591577</v>
+        <v>1.002909880035123</v>
       </c>
       <c r="K23">
-        <v>1.033818301602469</v>
+        <v>1.012256766183647</v>
       </c>
       <c r="L23">
-        <v>1.038265452937314</v>
+        <v>1.003653790177303</v>
       </c>
       <c r="M23">
-        <v>1.045367439186826</v>
+        <v>1.00251136513948</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027420517684114</v>
+        <v>0.9801477416398992</v>
       </c>
       <c r="D24">
-        <v>1.031331899686264</v>
+        <v>1.003375658704374</v>
       </c>
       <c r="E24">
-        <v>1.03605985624207</v>
+        <v>0.9955166985802083</v>
       </c>
       <c r="F24">
-        <v>1.043437040754171</v>
+        <v>0.9954982532557612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031256365169647</v>
+        <v>1.03967879469663</v>
       </c>
       <c r="J24">
-        <v>1.033668331896888</v>
+        <v>1.00843200137839</v>
       </c>
       <c r="K24">
-        <v>1.034718332464109</v>
+        <v>1.017343752194517</v>
       </c>
       <c r="L24">
-        <v>1.039429708807975</v>
+        <v>1.009623006128914</v>
       </c>
       <c r="M24">
-        <v>1.046781352953167</v>
+        <v>1.009604888530002</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029239095401842</v>
+        <v>0.9896510954417409</v>
       </c>
       <c r="D25">
-        <v>1.032694098159833</v>
+        <v>1.010504666676107</v>
       </c>
       <c r="E25">
-        <v>1.037732791200228</v>
+        <v>1.003692984825908</v>
       </c>
       <c r="F25">
-        <v>1.045399463707819</v>
+        <v>1.004951234772113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031610707880881</v>
+        <v>1.042507145162412</v>
       </c>
       <c r="J25">
-        <v>1.034871691558839</v>
+        <v>1.014531832371784</v>
       </c>
       <c r="K25">
-        <v>1.035756420508819</v>
+        <v>1.022942070843219</v>
       </c>
       <c r="L25">
-        <v>1.04077925863368</v>
+        <v>1.016234241195433</v>
       </c>
       <c r="M25">
-        <v>1.048422127087495</v>
+        <v>1.017473172372862</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
